--- a/biology/Médecine/EA_Pharma/EA_Pharma.xlsx
+++ b/biology/Médecine/EA_Pharma/EA_Pharma.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 EA Pharma est un groupe pharmaceutique à dimension internationale fondé en 2006, issu du rapprochement de la société Équilibre Attitude, du Laboratoire des Granions, du Laboratoire Merle, du Laboratoire Nutrivercell, du Laboratoire Labcatal, du groupe pharmaceutique espagnol Drasanvi et du Laboratoire italien Stardea.
@@ -513,7 +525,9 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">1948 : Création du Laboratoire des Granions, fabricant de médicaments d’oligothérapie.
 1997-2004 : Lancement de la gamme de produits EAFIT, marque de nutrition sportive.
@@ -525,7 +539,7 @@
 2021 : Acquisition du groupe pharmaceutique espagnol Drasanvi.
 2022 : Acquisition de la société Stardea, spécialiste italien des compléments alimentaires.
 2022 : EA Pharma se déploit en Asie et se lance sur le marché chinois des compléments alimentaires.
-2023 : Acquisition de la société W Group, spécialiste américain des compléments alimentaires[1].
+2023 : Acquisition de la société W Group, spécialiste américain des compléments alimentaires.
 </t>
         </is>
       </c>
@@ -554,15 +568,17 @@
           <t>Le groupe</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Équilibre Attitude (France)[2]
-Laboratoire des Granions (Monaco)[3].
-Laboratoire Merle (France)[4]
-Labcatal (France)[5]
-Drasanvi (Espagne, Costa Rica, Portugal, Pérou, Mexique, Chili)[6]
-Stardea (Italie) [7]
-W Group (Etas-Unis)[8]</t>
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Équilibre Attitude (France)
+Laboratoire des Granions (Monaco).
+Laboratoire Merle (France)
+Labcatal (France)
+Drasanvi (Espagne, Costa Rica, Portugal, Pérou, Mexique, Chili)
+Stardea (Italie) 
+W Group (Etas-Unis)</t>
         </is>
       </c>
     </row>
@@ -590,7 +606,9 @@
           <t>Activités</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>EA Pharma couvre les secteurs d'activités suivants :
 L'oligothérapie
@@ -627,7 +645,9 @@
           <t>Produits phares</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>OLIGOSTIM
 CHONDROSTEO
